--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -28,7 +28,7 @@
     <t>2025-10-16</t>
   </si>
   <si>
-    <t>200490000</t>
+    <t>20049000</t>
   </si>
   <si>
     <t>0</t>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,8 +442,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,6 +456,20 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,6 +473,20 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>20000000</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,6 +493,20 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>20000000</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>20399000</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,6 +516,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>20399000</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>20699000</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,6 +536,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>20699000</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,6 +553,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,6 +570,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t>22400000</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,6 +590,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>22400000</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>22999000</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,6 +610,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>22999000</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>23999000</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,6 +630,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>23999000</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,6 +647,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,6 +664,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>23700000</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,6 +684,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>23700000</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,6 +701,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>26500000</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,6 +721,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>26500000</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,6 +738,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,6 +755,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,6 +772,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,6 +789,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,6 +806,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,6 +823,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>26400000</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,6 +843,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>26400000</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,6 +860,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>26300000</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,6 +880,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>26300000</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>26700000</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,6 +900,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>26700000</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>26600000</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,6 +920,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>26600000</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,6 +937,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>27200000</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,6 +957,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>27200000</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,6 +974,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>27250000</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,6 +994,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>27250000</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>27900000</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,6 +1014,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>27900000</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,6 +1031,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>27800000</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,6 +1051,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>27800000</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,6 +1068,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>43990000</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,6 +1088,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>43990000</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,6 +1105,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,6 +1122,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/ویدئو پروژکتور T6 Max.xlsx
+++ b/items/ویدئو پروژکتور T6 Max.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,6 +1139,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
